--- a/Asistencia.xlsx
+++ b/Asistencia.xlsx
@@ -1,57 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="8190" windowWidth="16380" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
-  <si>
-    <t>Nombre</t>
-  </si>
-  <si>
-    <t>Fecha</t>
-  </si>
-  <si>
-    <t>Oscar</t>
-  </si>
-  <si>
-    <t>Drake</t>
-  </si>
-  <si>
-    <t>07-06-2023 20:12:53</t>
-  </si>
-  <si>
-    <t>Asistencia</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -67,22 +42,84 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -370,59 +407,70 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" style="1" customWidth="1"/>
-    <col min="4" max="1025" width="11.5703125" style="1" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="1" width="11.5703125"/>
+    <col customWidth="1" max="2" min="2" style="1" width="17.28515625"/>
+    <col customWidth="1" max="3" min="3" style="1" width="22.85546875"/>
+    <col customWidth="1" max="1025" min="4" style="1" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
+    <row customHeight="1" ht="12.75" r="1" s="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Nombre</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Asistencia</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Fecha</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
+    <row customHeight="1" ht="12.75" r="2" s="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Oscar</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Asistencia</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>03-07-2023 19:55:00</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3"/>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="12.75" r="1048576" s="1"/>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" useFirstPageNumber="1" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>